--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,15 +52,18 @@
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
@@ -70,51 +73,48 @@
     <t>fucking</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -133,15 +133,15 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>powerful</t>
   </si>
   <si>
@@ -154,12 +154,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
@@ -175,6 +175,15 @@
     <t>really</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
@@ -184,10 +193,10 @@
     <t>watch</t>
   </si>
   <si>
+    <t>’</t>
+  </si>
+  <si>
     <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -559,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +776,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9903846153846154</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C6">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>38</v>
@@ -817,13 +826,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +844,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K7">
-        <v>0.7719298245614035</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +876,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8939393939393939</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>40</v>
@@ -941,13 +950,13 @@
         <v>41</v>
       </c>
       <c r="K9">
-        <v>0.68</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +976,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7368421052631579</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>42</v>
@@ -1017,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6923076923076923</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,13 +1050,13 @@
         <v>43</v>
       </c>
       <c r="K11">
-        <v>0.6111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1076,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6875</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K12">
-        <v>0.5833333333333334</v>
+        <v>0.55</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1126,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,31 +1144,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K13">
-        <v>0.5185185185185185</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L13">
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <v>13</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>14</v>
-      </c>
-      <c r="M13">
-        <v>14</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1176,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,13 +1200,13 @@
         <v>46</v>
       </c>
       <c r="K14">
-        <v>0.4583333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.675</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K15">
-        <v>0.4242424242424243</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1276,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5942028985507246</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C16">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K16">
-        <v>0.2777777777777778</v>
+        <v>0.25</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1326,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K17">
-        <v>0.2367941712204007</v>
+        <v>0.2449908925318761</v>
       </c>
       <c r="L17">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M17">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>838</v>
+        <v>829</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5882352941176471</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1385,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>50</v>
@@ -1417,13 +1426,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5319148936170213</v>
+        <v>0.5625</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>51</v>
@@ -1467,13 +1476,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5217391304347826</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1485,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K20">
-        <v>0.09473684210526316</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="L20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1526,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K21">
-        <v>0.03463855421686747</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1559,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>641</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,13 +1576,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1585,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K22">
-        <v>0.02777777777777778</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1609,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>525</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1617,13 +1626,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4615384615384616</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1635,19 +1644,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K23">
-        <v>0.01785714285714286</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1659,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>605</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1667,13 +1676,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4166666666666667</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1685,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K24">
-        <v>0.01324884792626728</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1709,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1713</v>
+        <v>648</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1717,13 +1726,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1735,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K25">
-        <v>0.01280409731113956</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1759,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>771</v>
+        <v>527</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1767,7 +1776,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3571428571428572</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -1785,7 +1794,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.0211038961038961</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <v>13</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1793,13 +1826,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3214285714285715</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1811,7 +1844,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>0.01408450704225352</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>770</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1839,31 +1896,55 @@
       <c r="H28">
         <v>68</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.01382488479262673</v>
+      </c>
+      <c r="L28">
+        <v>24</v>
+      </c>
+      <c r="M28">
+        <v>24</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>1712</v>
+      </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03691275167785235</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F29">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
